--- a/artfynd/A 30541-2021.xlsx
+++ b/artfynd/A 30541-2021.xlsx
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53914236</v>
+        <v>112114</v>
       </c>
       <c r="B8" t="n">
         <v>97055</v>
@@ -1386,12 +1386,9 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Starrmyran, Svartbyn, Nb</t>
+          <t>Starrmyran, Nb</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1401,7 +1398,7 @@
         <v>7313097.270253611</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1425,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2012-08-18</t>
+          <t>2009-07-15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1435,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2012-08-18</t>
+          <t>2009-07-15</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1451,16 +1448,21 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>frodig sekundär lövsumpskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Göran Frisk</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Göran Frisk, Kristina Nygren Frisk</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
